--- a/szondi/WITprose/ff-codes_2_text.xlsx
+++ b/szondi/WITprose/ff-codes_2_text.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="221" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="233" uniqueCount="81">
   <si>
     <t>Farbe</t>
   </si>
@@ -123,15 +123,15 @@
     <t>als igel, der hat noch jeden hare besiegt</t>
   </si>
   <si>
+    <t>22.01.25 11:28</t>
+  </si>
+  <si>
+    <t>22.01.25 11:28:07</t>
+  </si>
+  <si>
     <t>22.01.25 11:27:59</t>
   </si>
   <si>
-    <t>22.01.25 11:28</t>
-  </si>
-  <si>
-    <t>22.01.25 11:28:07</t>
-  </si>
-  <si>
     <t>liegt aber eine strähne im brief, gar eine lange, halte sie unverfänglich an die wange</t>
   </si>
   <si>
@@ -156,13 +156,13 @@
     <t>dickicht</t>
   </si>
   <si>
-    <t>28.01.25 19:05</t>
+    <t>01.02.25 19:34</t>
   </si>
   <si>
     <t>28.01.25 19:05:51</t>
   </si>
   <si>
-    <t>thicket, jungle</t>
+    <t>thicket, jungle / cf. box office (2009) (gossip p.69)</t>
   </si>
   <si>
     <t>drum rum</t>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>strieme: engl. weal &gt; wheelless &gt; radlos &gt; ratlos: ratlos im Stall (dt. Idiom?)</t>
+  </si>
+  <si>
+    <t>im herbst, in jedem fall before it fell</t>
+  </si>
+  <si>
+    <t>01.02.25 19:36</t>
+  </si>
+  <si>
+    <t>01.02.25 19:35:52</t>
+  </si>
+  <si>
+    <t>herbst &gt; fall</t>
   </si>
   <si>
     <t>wendig</t>
@@ -530,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0"/>
   </sheetViews>
@@ -821,7 +833,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -831,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -849,13 +861,13 @@
         <v>22</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>25</v>
@@ -870,11 +882,11 @@
         <v>0.38436300000000001</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -884,7 +896,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -902,7 +914,7 @@
         <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>22</v>
@@ -923,7 +935,7 @@
         <v>0.38436300000000001</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +967,7 @@
         <v>22</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>22</v>
@@ -1026,7 +1038,7 @@
         <v>12</v>
       </c>
       <c r="P9" s="6">
-        <v>0.11249648448485984</v>
+        <v>0.112496</v>
       </c>
       <c r="Q9" s="5" t="s">
         <v>18</v>
@@ -1079,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="6">
-        <v>0.074997656323239889</v>
+        <v>0.0749977</v>
       </c>
       <c r="Q10" s="5" t="s">
         <v>18</v>
@@ -1132,7 +1144,7 @@
         <v>8</v>
       </c>
       <c r="P11" s="6">
-        <v>0.074997656323239889</v>
+        <v>0.0749977</v>
       </c>
       <c r="Q11" s="5" t="s">
         <v>18</v>
@@ -1185,7 +1197,7 @@
         <v>13</v>
       </c>
       <c r="P12" s="6">
-        <v>0.12187119152526484</v>
+        <v>0.12187099999999999</v>
       </c>
       <c r="Q12" s="5" t="s">
         <v>18</v>
@@ -1238,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="P13" s="6">
-        <v>0.084372363363644884</v>
+        <v>0.0843724</v>
       </c>
       <c r="Q13" s="5" t="s">
         <v>18</v>
@@ -1291,7 +1303,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="6">
-        <v>0.037498828161619945</v>
+        <v>0.037498799999999999</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>18</v>
@@ -1457,7 +1469,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1467,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2">
         <v>7</v>
@@ -1500,12 +1512,65 @@
         <v>76</v>
       </c>
       <c r="O18" s="4">
+        <v>39</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0.36561357457579452</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>7</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O19" s="4">
         <v>6</v>
       </c>
-      <c r="P18" s="6">
-        <v>0.05624824224242992</v>
-      </c>
-      <c r="Q18" s="5" t="s">
+      <c r="P19" s="6">
+        <v>0.056248199999999998</v>
+      </c>
+      <c r="Q19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
